--- a/biology/Zoologie/Cymbalophora/Cymbalophora.xlsx
+++ b/biology/Zoologie/Cymbalophora/Cymbalophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbalophora est un genre de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (4 novembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (4 novembre 2020) :
 Cymbalophora rivularis (Ménétriés, 1832) — Europe du Sud, Caucase.
 Cymbalophora pudica (Esper, 1785) — Afrique du Nord, Europe du Sud.
 Cymbalophora powelli Oberthür, 1910 — Afrique du Nord.
@@ -546,7 +560,9 @@
           <t>Émission de sons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Cymbalophora signifie « qui porte des cymbales », allusion aux chuintements produits par les ailes des mâles lors du vol essentiellement nocturne, sons accompagnés d'ultra-sons inaudibles, qui serviraient à perturber le système d'écholocation des chauves-souris, leurs prédateurs principaux lors du vol.
 Ce ne sont pas les seuls papillons à émettre des sons : le Sphinx tête de mort peut aussi se rendre très audible mais en produisant des sons grâce à une lame située à l'entrée de son pharynx. Cette lame vibre lorsque le papillon (ou sa chenille) expulse de l'air.
